--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753EC8B9-A2ED-42E9-980C-FA9DC5716654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4B927-91EE-419A-8C96-7D7C25E77721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法闪击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁锢之术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护之击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I26"/>
+  <dimension ref="C1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,65 +656,65 @@
     </row>
     <row r="9" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <v>51011101</v>
+        <v>50000201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>61012101</v>
+        <v>60000301</v>
       </c>
       <c r="F9" s="1">
-        <v>61012101</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>61011101</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>60000301</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>60000401</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <v>51011102</v>
+        <v>50000202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>61012102</v>
+        <v>60000302</v>
       </c>
       <c r="F10" s="1">
-        <v>61012102</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>61011102</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>60000302</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>60000402</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <v>51011103</v>
+        <v>51011101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>61012103</v>
+        <v>61012101</v>
       </c>
       <c r="F11" s="1">
-        <v>61012103</v>
+        <v>61012101</v>
       </c>
       <c r="G11" s="1">
-        <v>61011103</v>
+        <v>61011101</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -713,19 +725,19 @@
     </row>
     <row r="12" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <v>51011104</v>
+        <v>51011102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>61012104</v>
+        <v>61012102</v>
       </c>
       <c r="F12" s="1">
-        <v>61012104</v>
+        <v>61012102</v>
       </c>
       <c r="G12" s="1">
-        <v>61011104</v>
+        <v>61011102</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -736,19 +748,19 @@
     </row>
     <row r="13" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <v>51011105</v>
+        <v>51011103</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>61012105</v>
+        <v>61012103</v>
       </c>
       <c r="F13" s="1">
-        <v>61012105</v>
+        <v>61012103</v>
       </c>
       <c r="G13" s="1">
-        <v>61011105</v>
+        <v>61011103</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -759,19 +771,19 @@
     </row>
     <row r="14" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <v>51011106</v>
+        <v>51011104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>61012106</v>
+        <v>61012104</v>
       </c>
       <c r="F14" s="1">
-        <v>61012106</v>
+        <v>61012104</v>
       </c>
       <c r="G14" s="1">
-        <v>61011106</v>
+        <v>61011104</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -782,19 +794,19 @@
     </row>
     <row r="15" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <v>51011201</v>
+        <v>51011105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>61012201</v>
+        <v>61012105</v>
       </c>
       <c r="F15" s="1">
-        <v>61012201</v>
+        <v>61012105</v>
       </c>
       <c r="G15" s="1">
-        <v>61011201</v>
+        <v>61011105</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -805,19 +817,19 @@
     </row>
     <row r="16" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <v>51011202</v>
+        <v>51011106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>61012202</v>
+        <v>61012106</v>
       </c>
       <c r="F16" s="1">
-        <v>61012202</v>
+        <v>61012106</v>
       </c>
       <c r="G16" s="1">
-        <v>61011202</v>
+        <v>61011106</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -828,19 +840,19 @@
     </row>
     <row r="17" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <v>51011203</v>
+        <v>51011201</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1">
-        <v>61012203</v>
+        <v>61012201</v>
       </c>
       <c r="F17" s="1">
-        <v>61012203</v>
+        <v>61012201</v>
       </c>
       <c r="G17" s="1">
-        <v>61011203</v>
+        <v>61011201</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -851,19 +863,19 @@
     </row>
     <row r="18" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <v>51011204</v>
+        <v>51011202</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1">
-        <v>61012204</v>
+        <v>61012202</v>
       </c>
       <c r="F18" s="1">
-        <v>61012204</v>
+        <v>61012202</v>
       </c>
       <c r="G18" s="1">
-        <v>61011204</v>
+        <v>61011202</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -874,19 +886,19 @@
     </row>
     <row r="19" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <v>51011205</v>
+        <v>51011203</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1">
-        <v>61012205</v>
+        <v>61012203</v>
       </c>
       <c r="F19" s="1">
-        <v>61012205</v>
+        <v>61012203</v>
       </c>
       <c r="G19" s="1">
-        <v>61011205</v>
+        <v>61011203</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -897,19 +909,19 @@
     </row>
     <row r="20" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <v>51011206</v>
+        <v>51011204</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="1">
-        <v>61012206</v>
+        <v>61012204</v>
       </c>
       <c r="F20" s="1">
-        <v>61012206</v>
+        <v>61012204</v>
       </c>
       <c r="G20" s="1">
-        <v>61011206</v>
+        <v>61011204</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -920,19 +932,19 @@
     </row>
     <row r="21" spans="3:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <v>51011301</v>
+        <v>51011205</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
-        <v>61012301</v>
+        <v>61012205</v>
       </c>
       <c r="F21" s="1">
-        <v>61012301</v>
+        <v>61012205</v>
       </c>
       <c r="G21" s="1">
-        <v>61011301</v>
+        <v>61011205</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -943,19 +955,19 @@
     </row>
     <row r="22" spans="3:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <v>51011302</v>
+        <v>51011206</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
-        <v>61012302</v>
+        <v>61012206</v>
       </c>
       <c r="F22" s="1">
-        <v>61012302</v>
+        <v>61012206</v>
       </c>
       <c r="G22" s="1">
-        <v>61011302</v>
+        <v>61011206</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -966,19 +978,19 @@
     </row>
     <row r="23" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <v>51011303</v>
+        <v>51011301</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <v>61012303</v>
+        <v>61012301</v>
       </c>
       <c r="F23" s="1">
-        <v>61012303</v>
+        <v>61012301</v>
       </c>
       <c r="G23" s="1">
-        <v>61011303</v>
+        <v>61011301</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -989,19 +1001,19 @@
     </row>
     <row r="24" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <v>51011304</v>
+        <v>51011302</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1">
-        <v>61012304</v>
+        <v>61012302</v>
       </c>
       <c r="F24" s="1">
-        <v>61012304</v>
+        <v>61012302</v>
       </c>
       <c r="G24" s="1">
-        <v>61011304</v>
+        <v>61011302</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1012,19 +1024,19 @@
     </row>
     <row r="25" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <v>51011305</v>
+        <v>51011303</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1">
-        <v>61012305</v>
+        <v>61012303</v>
       </c>
       <c r="F25" s="1">
-        <v>61012305</v>
+        <v>61012303</v>
       </c>
       <c r="G25" s="1">
-        <v>61011305</v>
+        <v>61011303</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1035,25 +1047,485 @@
     </row>
     <row r="26" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <v>51011306</v>
+        <v>51011304</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1">
+        <v>61012304</v>
+      </c>
+      <c r="F26" s="1">
+        <v>61012304</v>
+      </c>
+      <c r="G26" s="1">
+        <v>61011304</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>51011305</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1">
+        <v>61012305</v>
+      </c>
+      <c r="F27" s="1">
+        <v>61012305</v>
+      </c>
+      <c r="G27" s="1">
+        <v>61011305</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>51011306</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1">
         <v>61012306</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F28" s="1">
         <v>61012306</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G28" s="1">
         <v>61011306</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>52011101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1">
+        <v>62011101</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>62011101</v>
+      </c>
+      <c r="I29" s="1">
+        <v>62011201</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>52011102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1">
+        <v>62011102</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>62011102</v>
+      </c>
+      <c r="I30" s="1">
+        <v>62011202</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>52011103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1">
+        <v>62011103</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>62011103</v>
+      </c>
+      <c r="I31" s="1">
+        <v>62011203</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>52011104</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1">
+        <v>62011104</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>62011104</v>
+      </c>
+      <c r="I32" s="1">
+        <v>62011204</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>52011105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1">
+        <v>62011105</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>62011105</v>
+      </c>
+      <c r="I33" s="1">
+        <v>62011205</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>52011106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1">
+        <v>62011106</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>62011106</v>
+      </c>
+      <c r="I34" s="1">
+        <v>62011206</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>52011201</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
+        <v>62011301</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>62011301</v>
+      </c>
+      <c r="I35" s="1">
+        <v>62012101</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>52011202</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1">
+        <v>62011302</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>62011302</v>
+      </c>
+      <c r="I36" s="1">
+        <v>62012102</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>52011203</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1">
+        <v>62011303</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>62011303</v>
+      </c>
+      <c r="I37" s="1">
+        <v>62012103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>52011204</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1">
+        <v>62011304</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>62011304</v>
+      </c>
+      <c r="I38" s="1">
+        <v>62012104</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>52011205</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1">
+        <v>62011305</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>62011305</v>
+      </c>
+      <c r="I39" s="1">
+        <v>62012105</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>52011206</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1">
+        <v>62011306</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>62011306</v>
+      </c>
+      <c r="I40" s="1">
+        <v>62012106</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>52011301</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1">
+        <v>62012201</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>62012201</v>
+      </c>
+      <c r="I41" s="1">
+        <v>62012301</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>52011302</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="1">
+        <v>62012202</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>62012202</v>
+      </c>
+      <c r="I42" s="1">
+        <v>62012302</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>52011303</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1">
+        <v>62012203</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>62012203</v>
+      </c>
+      <c r="I43" s="1">
+        <v>62012303</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>52011304</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1">
+        <v>62012204</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>62012204</v>
+      </c>
+      <c r="I44" s="1">
+        <v>62012304</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>52011305</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1">
+        <v>62012205</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>62012205</v>
+      </c>
+      <c r="I45" s="1">
+        <v>62012305</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>52011306</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1">
+        <v>62012206</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>62012206</v>
+      </c>
+      <c r="I46" s="1">
+        <v>62012306</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4B927-91EE-419A-8C96-7D7C25E77721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDC560-449D-4318-8E85-0FF964E2D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="855" windowWidth="24000" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDC560-449D-4318-8E85-0FF964E2D86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="855" windowWidth="24000" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Id</t>
   </si>
@@ -33,143 +22,269 @@
     <t>技能名称</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>默认技能ID</t>
+  </si>
+  <si>
+    <t>剑武器技能</t>
+  </si>
+  <si>
+    <t>刀武器技能</t>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>魔法书</t>
+  </si>
+  <si>
+    <t>弓箭</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InitSkillID</t>
   </si>
   <si>
-    <t>刀武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InitSkillID_1</t>
   </si>
   <si>
-    <t>剑武器技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InitSkillID_2</t>
+  </si>
+  <si>
+    <t>InitSkillID_3</t>
+  </si>
+  <si>
+    <t>InitSkillID_4</t>
+  </si>
+  <si>
+    <t>InitSkillID_5</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InitSkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>string</t>
   </si>
   <si>
     <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSkillID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSkillID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSkillID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSkillID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔法闪击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>禁锢之术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>守护之击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡射击</t>
+  </si>
+  <si>
+    <t>召唤野兽</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +297,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -206,33 +507,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -279,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -314,7 +896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -488,109 +1070,114 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="36.625" customWidth="1"/>
     <col min="8" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="36.625" customWidth="1"/>
+    <col min="10" max="10" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>50000101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>60000201</v>
@@ -607,13 +1194,16 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>50000102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>60000202</v>
@@ -630,13 +1220,16 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>50000103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>60000203</v>
@@ -653,13 +1246,16 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>50000201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>60000301</v>
@@ -676,13 +1272,16 @@
       <c r="I9" s="1">
         <v>60000401</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <v>60000401</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>50000202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>60000302</v>
@@ -699,476 +1298,539 @@
       <c r="I10" s="1">
         <v>60000402</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>60000402</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
+        <v>50000301</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>60000501</v>
+      </c>
+      <c r="F11" s="1">
+        <v>60000201</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>60000501</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>50000302</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>60000502</v>
+      </c>
+      <c r="F12" s="1">
+        <v>60000202</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60000502</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C13" s="1">
         <v>51011101</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
         <v>61012101</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13" s="1">
         <v>61012101</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="1">
         <v>61011101</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C14" s="1">
         <v>51011102</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
         <v>61012102</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F14" s="1">
         <v>61012102</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <v>61011102</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C15" s="1">
         <v>51011103</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1">
         <v>61012103</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F15" s="1">
         <v>61012103</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G15" s="1">
         <v>61011103</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C16" s="1">
         <v>51011104</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1">
         <v>61012104</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="1">
         <v>61012104</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <v>61011104</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
         <v>51011105</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1">
         <v>61012105</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F17" s="1">
         <v>61012105</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G17" s="1">
         <v>61011105</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
         <v>51011106</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
         <v>61012106</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F18" s="1">
         <v>61012106</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <v>61011106</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
         <v>51011201</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
         <v>61012201</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F19" s="1">
         <v>61012201</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="1">
         <v>61011201</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C20" s="1">
         <v>51011202</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
         <v>61012202</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F20" s="1">
         <v>61012202</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="1">
         <v>61011202</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C21" s="1">
         <v>51011203</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
         <v>61012203</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="1">
         <v>61012203</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G21" s="1">
         <v>61011203</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
         <v>51011204</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
         <v>61012204</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>61012204</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>61011204</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
         <v>51011205</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1">
         <v>61012205</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F23" s="1">
         <v>61012205</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G23" s="1">
         <v>61011205</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
         <v>51011206</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1">
         <v>61012206</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F24" s="1">
         <v>61012206</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <v>61011206</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
         <v>51011301</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
         <v>61012301</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>61012301</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>61011301</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="1">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
         <v>51011302</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
         <v>61012302</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F26" s="1">
         <v>61012302</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G26" s="1">
         <v>61011302</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
         <v>51011303</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
         <v>61012303</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F27" s="1">
         <v>61012303</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G27" s="1">
         <v>61011303</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+      <c r="C28" s="1">
         <v>51011304</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
         <v>61012304</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F28" s="1">
         <v>61012304</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G28" s="1">
         <v>61011304</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="1">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
         <v>51011305</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
         <v>61012305</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <v>61012305</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <v>61011305</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="1">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
         <v>51011306</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
         <v>61012306</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F30" s="1">
         <v>61012306</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G30" s="1">
         <v>61011306</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="1">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
         <v>52011101</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1">
-        <v>62011101</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>62011101</v>
-      </c>
-      <c r="I29" s="1">
-        <v>62011201</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
-        <v>52011102</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1">
-        <v>62011102</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>62011102</v>
-      </c>
-      <c r="I30" s="1">
-        <v>62011202</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
-        <v>52011103</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="1">
-        <v>62011103</v>
+        <v>62011101</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1177,21 +1839,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>62011103</v>
+        <v>62011101</v>
       </c>
       <c r="I31" s="1">
-        <v>62011203</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62011201</v>
+      </c>
+      <c r="J31" s="1">
+        <v>62011201</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="3:10">
       <c r="C32" s="1">
-        <v>52011104</v>
+        <v>52011102</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="1">
-        <v>62011104</v>
+        <v>62011102</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1200,21 +1865,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>62011104</v>
+        <v>62011102</v>
       </c>
       <c r="I32" s="1">
-        <v>62011204</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62011202</v>
+      </c>
+      <c r="J32" s="1">
+        <v>62011202</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="3:10">
       <c r="C33" s="1">
-        <v>52011105</v>
+        <v>52011103</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="1">
-        <v>62011105</v>
+        <v>62011103</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1223,90 +1891,102 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>62011105</v>
+        <v>62011103</v>
       </c>
       <c r="I33" s="1">
-        <v>62011205</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62011203</v>
+      </c>
+      <c r="J33" s="1">
+        <v>62011203</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="3:10">
       <c r="C34" s="1">
-        <v>52011106</v>
+        <v>52011104</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="1">
+        <v>62011104</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>62011104</v>
+      </c>
+      <c r="I34" s="1">
+        <v>62011204</v>
+      </c>
+      <c r="J34" s="1">
+        <v>62011204</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="3:10">
+      <c r="C35" s="1">
+        <v>52011105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1">
+        <v>62011105</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>62011105</v>
+      </c>
+      <c r="I35" s="1">
+        <v>62011205</v>
+      </c>
+      <c r="J35" s="1">
+        <v>62011205</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="3:10">
+      <c r="C36" s="1">
+        <v>52011106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1">
         <v>62011106</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>62011106</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I36" s="1">
         <v>62011206</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
+      <c r="J36" s="1">
+        <v>62011206</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="3:10">
+      <c r="C37" s="1">
         <v>52011201</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1">
-        <v>62011301</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>62011301</v>
-      </c>
-      <c r="I35" s="1">
-        <v>62012101</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <v>52011202</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="1">
-        <v>62011302</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>62011302</v>
-      </c>
-      <c r="I36" s="1">
-        <v>62012102</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <v>52011203</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="1">
-        <v>62011303</v>
+        <v>62011301</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1315,21 +1995,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>62011303</v>
+        <v>62011301</v>
       </c>
       <c r="I37" s="1">
-        <v>62012103</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012101</v>
+      </c>
+      <c r="J37" s="1">
+        <v>62012101</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="3:10">
       <c r="C38" s="1">
-        <v>52011204</v>
+        <v>52011202</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="1">
-        <v>62011304</v>
+        <v>62011302</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1338,21 +2021,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>62011304</v>
+        <v>62011302</v>
       </c>
       <c r="I38" s="1">
-        <v>62012104</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012102</v>
+      </c>
+      <c r="J38" s="1">
+        <v>62012102</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="3:10">
       <c r="C39" s="1">
-        <v>52011205</v>
+        <v>52011203</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="1">
-        <v>62011305</v>
+        <v>62011303</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1361,90 +2047,102 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>62011305</v>
+        <v>62011303</v>
       </c>
       <c r="I39" s="1">
-        <v>62012105</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012103</v>
+      </c>
+      <c r="J39" s="1">
+        <v>62012103</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="3:10">
       <c r="C40" s="1">
-        <v>52011206</v>
+        <v>52011204</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="1">
+        <v>62011304</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>62011304</v>
+      </c>
+      <c r="I40" s="1">
+        <v>62012104</v>
+      </c>
+      <c r="J40" s="1">
+        <v>62012104</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
+        <v>52011205</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>62011305</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>62011305</v>
+      </c>
+      <c r="I41" s="1">
+        <v>62012105</v>
+      </c>
+      <c r="J41" s="1">
+        <v>62012105</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>52011206</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1">
         <v>62011306</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
         <v>62011306</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I42" s="1">
         <v>62012106</v>
       </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="1">
+      <c r="J42" s="1">
+        <v>62012106</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="3:10">
+      <c r="C43" s="1">
         <v>52011301</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="1">
-        <v>62012201</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>62012201</v>
-      </c>
-      <c r="I41" s="1">
-        <v>62012301</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="1">
-        <v>52011302</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="1">
-        <v>62012202</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>62012202</v>
-      </c>
-      <c r="I42" s="1">
-        <v>62012302</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="1">
-        <v>52011303</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="1">
-        <v>62012203</v>
+        <v>62012201</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1453,21 +2151,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>62012203</v>
+        <v>62012201</v>
       </c>
       <c r="I43" s="1">
-        <v>62012303</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012301</v>
+      </c>
+      <c r="J43" s="1">
+        <v>62012301</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="3:10">
       <c r="C44" s="1">
-        <v>52011304</v>
+        <v>52011302</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>62012204</v>
+        <v>62012202</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1476,21 +2177,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>62012204</v>
+        <v>62012202</v>
       </c>
       <c r="I44" s="1">
-        <v>62012304</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012302</v>
+      </c>
+      <c r="J44" s="1">
+        <v>62012302</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="3:10">
       <c r="C45" s="1">
-        <v>52011305</v>
+        <v>52011303</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1">
-        <v>62012205</v>
+        <v>62012203</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1499,38 +2203,610 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>62012205</v>
+        <v>62012203</v>
       </c>
       <c r="I45" s="1">
-        <v>62012305</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+        <v>62012303</v>
+      </c>
+      <c r="J45" s="1">
+        <v>62012303</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="3:10">
       <c r="C46" s="1">
-        <v>52011306</v>
+        <v>52011304</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1">
+        <v>62012204</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>62012204</v>
+      </c>
+      <c r="I46" s="1">
+        <v>62012304</v>
+      </c>
+      <c r="J46" s="1">
+        <v>62012304</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>52011305</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1">
+        <v>62012205</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>62012205</v>
+      </c>
+      <c r="I47" s="1">
+        <v>62012305</v>
+      </c>
+      <c r="J47" s="1">
+        <v>62012305</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>52011306</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1">
         <v>62012206</v>
       </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
         <v>62012206</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I48" s="1">
         <v>62012306</v>
       </c>
-    </row>
+      <c r="J48" s="1">
+        <v>62012306</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="3:10">
+      <c r="C49" s="1">
+        <v>53011101</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>63011101</v>
+      </c>
+      <c r="F49" s="1">
+        <v>63012101</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>63011101</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="3:10">
+      <c r="C50" s="1">
+        <v>53011102</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1">
+        <v>63011102</v>
+      </c>
+      <c r="F50" s="1">
+        <v>63012102</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>63011102</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="3:10">
+      <c r="C51" s="1">
+        <v>53011103</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1">
+        <v>63011103</v>
+      </c>
+      <c r="F51" s="1">
+        <v>63012103</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>63011103</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="3:10">
+      <c r="C52" s="1">
+        <v>53011104</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1">
+        <v>63011104</v>
+      </c>
+      <c r="F52" s="1">
+        <v>63012104</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>63011104</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="3:10">
+      <c r="C53" s="1">
+        <v>53011105</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1">
+        <v>63011105</v>
+      </c>
+      <c r="F53" s="1">
+        <v>63012105</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>63011105</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="3:10">
+      <c r="C54" s="1">
+        <v>53011106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1">
+        <v>63011106</v>
+      </c>
+      <c r="F54" s="1">
+        <v>63012106</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>63011106</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
+        <v>53011201</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1">
+        <v>63011301</v>
+      </c>
+      <c r="F55" s="1">
+        <v>63012201</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>63011301</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="3:10">
+      <c r="C56" s="1">
+        <v>53011202</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1">
+        <v>63011302</v>
+      </c>
+      <c r="F56" s="1">
+        <v>63012202</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>63011302</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>53011203</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="1">
+        <v>63011303</v>
+      </c>
+      <c r="F57" s="1">
+        <v>63012203</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>63011303</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="3:10">
+      <c r="C58" s="1">
+        <v>53011204</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1">
+        <v>63011304</v>
+      </c>
+      <c r="F58" s="1">
+        <v>63012204</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>63011304</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="3:10">
+      <c r="C59" s="1">
+        <v>53011205</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1">
+        <v>63011305</v>
+      </c>
+      <c r="F59" s="1">
+        <v>63012205</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>63011305</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="3:10">
+      <c r="C60" s="1">
+        <v>53011206</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1">
+        <v>63011306</v>
+      </c>
+      <c r="F60" s="1">
+        <v>63012206</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>63011306</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="3:10">
+      <c r="C61" s="1">
+        <v>53011301</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1">
+        <v>63012201</v>
+      </c>
+      <c r="F61" s="1">
+        <v>63012301</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>63012201</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="3:10">
+      <c r="C62" s="1">
+        <v>53011302</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="1">
+        <v>63012202</v>
+      </c>
+      <c r="F62" s="1">
+        <v>63012302</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>63012202</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="3:10">
+      <c r="C63" s="1">
+        <v>53011303</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="1">
+        <v>63012203</v>
+      </c>
+      <c r="F63" s="1">
+        <v>63012303</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>63012203</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="3:10">
+      <c r="C64" s="1">
+        <v>53011304</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="1">
+        <v>63012204</v>
+      </c>
+      <c r="F64" s="1">
+        <v>63012304</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>63012204</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="3:10">
+      <c r="C65" s="1">
+        <v>53011305</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="1">
+        <v>63012205</v>
+      </c>
+      <c r="F65" s="1">
+        <v>63012305</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>63012205</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="3:10">
+      <c r="C66" s="1">
+        <v>53011306</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1">
+        <v>63012206</v>
+      </c>
+      <c r="F66" s="1">
+        <v>63012306</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>63012206</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1"/>
+    <row r="68" ht="20" customHeight="1"/>
+    <row r="69" ht="20" customHeight="1"/>
+    <row r="70" ht="20" customHeight="1"/>
+    <row r="71" ht="20" customHeight="1"/>
+    <row r="72" ht="20" customHeight="1"/>
+    <row r="73" ht="20" customHeight="1"/>
+    <row r="74" ht="20" customHeight="1"/>
+    <row r="75" ht="20" customHeight="1"/>
+    <row r="76" ht="20" customHeight="1"/>
+    <row r="77" ht="20" customHeight="1"/>
+    <row r="78" ht="20" customHeight="1"/>
+    <row r="79" ht="20" customHeight="1"/>
+    <row r="80" ht="20" customHeight="1"/>
+    <row r="81" ht="20" customHeight="1"/>
+    <row r="82" ht="20" customHeight="1"/>
+    <row r="83" ht="20" customHeight="1"/>
+    <row r="84" ht="20" customHeight="1"/>
+    <row r="85" ht="20" customHeight="1"/>
+    <row r="86" ht="20" customHeight="1"/>
+    <row r="87" ht="20" customHeight="1"/>
+    <row r="88" ht="20" customHeight="1"/>
+    <row r="89" ht="20" customHeight="1"/>
+    <row r="90" ht="20" customHeight="1"/>
+    <row r="91" ht="20" customHeight="1"/>
+    <row r="92" ht="20" customHeight="1"/>
+    <row r="93" ht="20" customHeight="1"/>
+    <row r="94" ht="20" customHeight="1"/>
+    <row r="95" ht="20" customHeight="1"/>
+    <row r="96" ht="20" customHeight="1"/>
+    <row r="97" ht="20" customHeight="1"/>
+    <row r="98" ht="20" customHeight="1"/>
+    <row r="99" ht="20" customHeight="1"/>
+    <row r="100" ht="20" customHeight="1"/>
+    <row r="101" ht="20" customHeight="1"/>
+    <row r="102" ht="20" customHeight="1"/>
+    <row r="103" ht="20" customHeight="1"/>
+    <row r="104" ht="20" customHeight="1"/>
+    <row r="105" ht="20" customHeight="1"/>
+    <row r="106" ht="20" customHeight="1"/>
+    <row r="107" ht="20" customHeight="1"/>
+    <row r="108" ht="20" customHeight="1"/>
+    <row r="109" ht="20" customHeight="1"/>
+    <row r="110" ht="20" customHeight="1"/>
+    <row r="111" ht="20" customHeight="1"/>
+    <row r="112" ht="20" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD62B19-7F63-467B-A3CE-087701974D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -97,14 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -123,6 +124,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,161 +132,18 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,194 +156,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -507,251 +180,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -763,58 +194,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1070,31 +462,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="36.625" customWidth="1"/>
     <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="36.625" customWidth="1"/>
-    <col min="10" max="10" width="36.625" customWidth="1"/>
+    <col min="9" max="10" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="6" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>50000101</v>
       </c>
@@ -1198,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="7" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>50000102</v>
       </c>
@@ -1224,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>50000103</v>
       </c>
@@ -1250,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>50000201</v>
       </c>
@@ -1276,7 +667,7 @@
         <v>60000401</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>50000202</v>
       </c>
@@ -1302,7 +693,7 @@
         <v>60000402</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>50000301</v>
       </c>
@@ -1328,7 +719,7 @@
         <v>60000501</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>50000302</v>
       </c>
@@ -1354,7 +745,7 @@
         <v>60000502</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>51011101</v>
       </c>
@@ -1380,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>51011102</v>
       </c>
@@ -1406,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>51011103</v>
       </c>
@@ -1432,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>51011104</v>
       </c>
@@ -1458,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>51011105</v>
       </c>
@@ -1484,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>51011106</v>
       </c>
@@ -1510,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>51011201</v>
       </c>
@@ -1536,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>51011202</v>
       </c>
@@ -1562,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>51011203</v>
       </c>
@@ -1588,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>51011204</v>
       </c>
@@ -1614,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="23" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>51011205</v>
       </c>
@@ -1640,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>51011206</v>
       </c>
@@ -1666,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>51011301</v>
       </c>
@@ -1692,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>51011302</v>
       </c>
@@ -1718,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+    <row r="27" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>51011303</v>
       </c>
@@ -1744,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20" customHeight="1" spans="3:10">
+    <row r="28" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>51011304</v>
       </c>
@@ -1770,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="3:10">
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>51011305</v>
       </c>
@@ -1796,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="3:10">
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>51011306</v>
       </c>
@@ -1822,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="3:10">
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>52011101</v>
       </c>
@@ -1848,7 +1239,7 @@
         <v>62011201</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="3:10">
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>52011102</v>
       </c>
@@ -1874,7 +1265,7 @@
         <v>62011202</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1" spans="3:10">
+    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <v>52011103</v>
       </c>
@@ -1900,7 +1291,7 @@
         <v>62011203</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="3:10">
+    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>52011104</v>
       </c>
@@ -1926,7 +1317,7 @@
         <v>62011204</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="3:10">
+    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>52011105</v>
       </c>
@@ -1952,7 +1343,7 @@
         <v>62011205</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1" spans="3:10">
+    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>52011106</v>
       </c>
@@ -1978,7 +1369,7 @@
         <v>62011206</v>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="3:10">
+    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
         <v>52011201</v>
       </c>
@@ -2004,7 +1395,7 @@
         <v>62012101</v>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="3:10">
+    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <v>52011202</v>
       </c>
@@ -2030,7 +1421,7 @@
         <v>62012102</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1" spans="3:10">
+    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <v>52011203</v>
       </c>
@@ -2056,7 +1447,7 @@
         <v>62012103</v>
       </c>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="3:10">
+    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <v>52011204</v>
       </c>
@@ -2082,7 +1473,7 @@
         <v>62012104</v>
       </c>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="3:10">
+    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <v>52011205</v>
       </c>
@@ -2108,7 +1499,7 @@
         <v>62012105</v>
       </c>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="3:10">
+    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <v>52011206</v>
       </c>
@@ -2134,7 +1525,7 @@
         <v>62012106</v>
       </c>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="3:10">
+    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>52011301</v>
       </c>
@@ -2160,7 +1551,7 @@
         <v>62012301</v>
       </c>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="3:10">
+    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>52011302</v>
       </c>
@@ -2186,7 +1577,7 @@
         <v>62012302</v>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="3:10">
+    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <v>52011303</v>
       </c>
@@ -2212,7 +1603,7 @@
         <v>62012303</v>
       </c>
     </row>
-    <row r="46" ht="20" customHeight="1" spans="3:10">
+    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>52011304</v>
       </c>
@@ -2238,7 +1629,7 @@
         <v>62012304</v>
       </c>
     </row>
-    <row r="47" ht="20" customHeight="1" spans="3:10">
+    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>52011305</v>
       </c>
@@ -2264,7 +1655,7 @@
         <v>62012305</v>
       </c>
     </row>
-    <row r="48" ht="20" customHeight="1" spans="3:10">
+    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <v>52011306</v>
       </c>
@@ -2290,7 +1681,7 @@
         <v>62012306</v>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="3:10">
+    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>53011101</v>
       </c>
@@ -2301,7 +1692,7 @@
         <v>63011101</v>
       </c>
       <c r="F49" s="1">
-        <v>63012101</v>
+        <v>63011201</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2316,7 +1707,7 @@
         <v>63011101</v>
       </c>
     </row>
-    <row r="50" ht="20" customHeight="1" spans="3:10">
+    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <v>53011102</v>
       </c>
@@ -2327,7 +1718,7 @@
         <v>63011102</v>
       </c>
       <c r="F50" s="1">
-        <v>63012102</v>
+        <v>63011202</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2342,7 +1733,7 @@
         <v>63011102</v>
       </c>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="3:10">
+    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>53011103</v>
       </c>
@@ -2353,7 +1744,7 @@
         <v>63011103</v>
       </c>
       <c r="F51" s="1">
-        <v>63012103</v>
+        <v>63011203</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2368,7 +1759,7 @@
         <v>63011103</v>
       </c>
     </row>
-    <row r="52" ht="20" customHeight="1" spans="3:10">
+    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>53011104</v>
       </c>
@@ -2379,7 +1770,7 @@
         <v>63011104</v>
       </c>
       <c r="F52" s="1">
-        <v>63012104</v>
+        <v>63011204</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2394,7 +1785,7 @@
         <v>63011104</v>
       </c>
     </row>
-    <row r="53" ht="20" customHeight="1" spans="3:10">
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <v>53011105</v>
       </c>
@@ -2405,7 +1796,7 @@
         <v>63011105</v>
       </c>
       <c r="F53" s="1">
-        <v>63012105</v>
+        <v>63011205</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2420,7 +1811,7 @@
         <v>63011105</v>
       </c>
     </row>
-    <row r="54" ht="20" customHeight="1" spans="3:10">
+    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <v>53011106</v>
       </c>
@@ -2431,7 +1822,7 @@
         <v>63011106</v>
       </c>
       <c r="F54" s="1">
-        <v>63012106</v>
+        <v>63011206</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2446,7 +1837,7 @@
         <v>63011106</v>
       </c>
     </row>
-    <row r="55" ht="20" customHeight="1" spans="3:10">
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <v>53011201</v>
       </c>
@@ -2457,7 +1848,7 @@
         <v>63011301</v>
       </c>
       <c r="F55" s="1">
-        <v>63012201</v>
+        <v>63012101</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2472,7 +1863,7 @@
         <v>63011301</v>
       </c>
     </row>
-    <row r="56" ht="20" customHeight="1" spans="3:10">
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>53011202</v>
       </c>
@@ -2483,7 +1874,7 @@
         <v>63011302</v>
       </c>
       <c r="F56" s="1">
-        <v>63012202</v>
+        <v>63012102</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2498,7 +1889,7 @@
         <v>63011302</v>
       </c>
     </row>
-    <row r="57" ht="20" customHeight="1" spans="3:10">
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>53011203</v>
       </c>
@@ -2509,7 +1900,7 @@
         <v>63011303</v>
       </c>
       <c r="F57" s="1">
-        <v>63012203</v>
+        <v>63012103</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2524,7 +1915,7 @@
         <v>63011303</v>
       </c>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="3:10">
+    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>53011204</v>
       </c>
@@ -2535,7 +1926,7 @@
         <v>63011304</v>
       </c>
       <c r="F58" s="1">
-        <v>63012204</v>
+        <v>63012104</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2550,7 +1941,7 @@
         <v>63011304</v>
       </c>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="3:10">
+    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>53011205</v>
       </c>
@@ -2561,7 +1952,7 @@
         <v>63011305</v>
       </c>
       <c r="F59" s="1">
-        <v>63012205</v>
+        <v>63012105</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2576,7 +1967,7 @@
         <v>63011305</v>
       </c>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="3:10">
+    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>53011206</v>
       </c>
@@ -2587,7 +1978,7 @@
         <v>63011306</v>
       </c>
       <c r="F60" s="1">
-        <v>63012206</v>
+        <v>63012106</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2602,7 +1993,7 @@
         <v>63011306</v>
       </c>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="3:10">
+    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
         <v>53011301</v>
       </c>
@@ -2628,7 +2019,7 @@
         <v>63012201</v>
       </c>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="3:10">
+    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>53011302</v>
       </c>
@@ -2654,7 +2045,7 @@
         <v>63012202</v>
       </c>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="3:10">
+    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
         <v>53011303</v>
       </c>
@@ -2680,7 +2071,7 @@
         <v>63012203</v>
       </c>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="3:10">
+    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>53011304</v>
       </c>
@@ -2706,7 +2097,7 @@
         <v>63012204</v>
       </c>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="3:10">
+    <row r="65" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
         <v>53011305</v>
       </c>
@@ -2732,7 +2123,7 @@
         <v>63012205</v>
       </c>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="3:10">
+    <row r="66" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
         <v>53011306</v>
       </c>
@@ -2758,55 +2149,55 @@
         <v>63012206</v>
       </c>
     </row>
-    <row r="67" ht="20" customHeight="1"/>
-    <row r="68" ht="20" customHeight="1"/>
-    <row r="69" ht="20" customHeight="1"/>
-    <row r="70" ht="20" customHeight="1"/>
-    <row r="71" ht="20" customHeight="1"/>
-    <row r="72" ht="20" customHeight="1"/>
-    <row r="73" ht="20" customHeight="1"/>
-    <row r="74" ht="20" customHeight="1"/>
-    <row r="75" ht="20" customHeight="1"/>
-    <row r="76" ht="20" customHeight="1"/>
-    <row r="77" ht="20" customHeight="1"/>
-    <row r="78" ht="20" customHeight="1"/>
-    <row r="79" ht="20" customHeight="1"/>
-    <row r="80" ht="20" customHeight="1"/>
-    <row r="81" ht="20" customHeight="1"/>
-    <row r="82" ht="20" customHeight="1"/>
-    <row r="83" ht="20" customHeight="1"/>
-    <row r="84" ht="20" customHeight="1"/>
-    <row r="85" ht="20" customHeight="1"/>
-    <row r="86" ht="20" customHeight="1"/>
-    <row r="87" ht="20" customHeight="1"/>
-    <row r="88" ht="20" customHeight="1"/>
-    <row r="89" ht="20" customHeight="1"/>
-    <row r="90" ht="20" customHeight="1"/>
-    <row r="91" ht="20" customHeight="1"/>
-    <row r="92" ht="20" customHeight="1"/>
-    <row r="93" ht="20" customHeight="1"/>
-    <row r="94" ht="20" customHeight="1"/>
-    <row r="95" ht="20" customHeight="1"/>
-    <row r="96" ht="20" customHeight="1"/>
-    <row r="97" ht="20" customHeight="1"/>
-    <row r="98" ht="20" customHeight="1"/>
-    <row r="99" ht="20" customHeight="1"/>
-    <row r="100" ht="20" customHeight="1"/>
-    <row r="101" ht="20" customHeight="1"/>
-    <row r="102" ht="20" customHeight="1"/>
-    <row r="103" ht="20" customHeight="1"/>
-    <row r="104" ht="20" customHeight="1"/>
-    <row r="105" ht="20" customHeight="1"/>
-    <row r="106" ht="20" customHeight="1"/>
-    <row r="107" ht="20" customHeight="1"/>
-    <row r="108" ht="20" customHeight="1"/>
-    <row r="109" ht="20" customHeight="1"/>
-    <row r="110" ht="20" customHeight="1"/>
-    <row r="111" ht="20" customHeight="1"/>
-    <row r="112" ht="20" customHeight="1"/>
+    <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD62B19-7F63-467B-A3CE-087701974D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962355E1-0214-4BC7-BFB9-EE037368CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962355E1-0214-4BC7-BFB9-EE037368CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8B8B5-A62D-4AD8-99E5-86C42B6AFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="C1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8B8B5-A62D-4AD8-99E5-86C42B6AFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F80C3-FC89-41BC-87FE-4DAF2D2D97CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -98,13 +98,22 @@
   </si>
   <si>
     <t>召唤野兽</t>
+  </si>
+  <si>
+    <t>黑暗之击</t>
+  </si>
+  <si>
+    <t>黑暗洗礼</t>
+  </si>
+  <si>
+    <t>黑暗召唤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +151,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +172,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,17 +208,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="15"/>
+      </left>
+      <right style="hair">
+        <color indexed="15"/>
+      </right>
+      <top style="hair">
+        <color indexed="15"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2149,36 +2198,486 @@
         <v>63012206</v>
       </c>
     </row>
-    <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>54011101</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="4">
+        <v>64011101</v>
+      </c>
+      <c r="F67" s="1">
+        <v>63011201</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>64011101</v>
+      </c>
+      <c r="I67" s="5">
+        <v>64012101</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>54011102</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="4">
+        <v>64011102</v>
+      </c>
+      <c r="F68" s="1">
+        <v>63011202</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>64011102</v>
+      </c>
+      <c r="I68" s="5">
+        <v>64012102</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>54011103</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="4">
+        <v>64011103</v>
+      </c>
+      <c r="F69" s="1">
+        <v>63011203</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>64011103</v>
+      </c>
+      <c r="I69" s="5">
+        <v>64012103</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>54011104</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="4">
+        <v>64011104</v>
+      </c>
+      <c r="F70" s="1">
+        <v>63011204</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>64011104</v>
+      </c>
+      <c r="I70" s="5">
+        <v>64012104</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>54011105</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="4">
+        <v>64011105</v>
+      </c>
+      <c r="F71" s="1">
+        <v>63011205</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>64011105</v>
+      </c>
+      <c r="I71" s="5">
+        <v>64012105</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <v>54011106</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="4">
+        <v>64011106</v>
+      </c>
+      <c r="F72" s="1">
+        <v>63011206</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>64011106</v>
+      </c>
+      <c r="I72" s="5">
+        <v>64012106</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
+        <v>54011201</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="5">
+        <v>64011201</v>
+      </c>
+      <c r="F73" s="1">
+        <v>63012101</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>64011201</v>
+      </c>
+      <c r="I73" s="4">
+        <v>64012201</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>54011202</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="5">
+        <v>64011202</v>
+      </c>
+      <c r="F74" s="1">
+        <v>63012102</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>64011202</v>
+      </c>
+      <c r="I74" s="4">
+        <v>64012202</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>54011203</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="5">
+        <v>64011203</v>
+      </c>
+      <c r="F75" s="1">
+        <v>63012103</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>64011203</v>
+      </c>
+      <c r="I75" s="4">
+        <v>64012203</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <v>54011204</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="5">
+        <v>64011204</v>
+      </c>
+      <c r="F76" s="1">
+        <v>63012104</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>64011204</v>
+      </c>
+      <c r="I76" s="4">
+        <v>64012204</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>54011205</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="5">
+        <v>64011205</v>
+      </c>
+      <c r="F77" s="1">
+        <v>63012105</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>64011205</v>
+      </c>
+      <c r="I77" s="4">
+        <v>64012205</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>54011206</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="5">
+        <v>64011206</v>
+      </c>
+      <c r="F78" s="1">
+        <v>63012106</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>64011206</v>
+      </c>
+      <c r="I78" s="4">
+        <v>64012206</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <v>54011301</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="4">
+        <v>64011301</v>
+      </c>
+      <c r="F79" s="1">
+        <v>63012301</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>64011301</v>
+      </c>
+      <c r="I79" s="5">
+        <v>64012301</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>54011302</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="4">
+        <v>64011302</v>
+      </c>
+      <c r="F80" s="1">
+        <v>63012302</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>64011302</v>
+      </c>
+      <c r="I80" s="5">
+        <v>64012302</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>54011303</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="4">
+        <v>64011303</v>
+      </c>
+      <c r="F81" s="1">
+        <v>63012303</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>64011303</v>
+      </c>
+      <c r="I81" s="5">
+        <v>64012303</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <v>54011304</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="4">
+        <v>64011304</v>
+      </c>
+      <c r="F82" s="1">
+        <v>63012304</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>64011304</v>
+      </c>
+      <c r="I82" s="5">
+        <v>64012304</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <v>54011305</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="F83" s="1">
+        <v>63012305</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="I83" s="5">
+        <v>64012305</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>54011306</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="4">
+        <v>64011306</v>
+      </c>
+      <c r="F84" s="1">
+        <v>63012306</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>64011306</v>
+      </c>
+      <c r="I84" s="5">
+        <v>64012306</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F80C3-FC89-41BC-87FE-4DAF2D2D97CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F031E89-661C-4ECE-815A-7137BF83FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F031E89-661C-4ECE-815A-7137BF83FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4708F5A-712D-46C9-A869-247A3CC30CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillWeaponConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -517,14 +517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J112"/>
+  <dimension ref="C1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="36.625" customWidth="1"/>
@@ -796,25 +797,25 @@
     </row>
     <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <v>51011101</v>
+        <v>50000401</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>61012101</v>
+        <v>60000601</v>
       </c>
       <c r="F13" s="1">
-        <v>61012101</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>61011101</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>60000601</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>60000701</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -822,19 +823,19 @@
     </row>
     <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <v>51011102</v>
+        <v>51011101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>61012102</v>
+        <v>61012101</v>
       </c>
       <c r="F14" s="1">
-        <v>61012102</v>
+        <v>61012101</v>
       </c>
       <c r="G14" s="1">
-        <v>61011102</v>
+        <v>61011101</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -848,19 +849,19 @@
     </row>
     <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <v>51011103</v>
+        <v>51011102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>61012103</v>
+        <v>61012102</v>
       </c>
       <c r="F15" s="1">
-        <v>61012103</v>
+        <v>61012102</v>
       </c>
       <c r="G15" s="1">
-        <v>61011103</v>
+        <v>61011102</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -874,19 +875,19 @@
     </row>
     <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <v>51011104</v>
+        <v>51011103</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>61012104</v>
+        <v>61012103</v>
       </c>
       <c r="F16" s="1">
-        <v>61012104</v>
+        <v>61012103</v>
       </c>
       <c r="G16" s="1">
-        <v>61011104</v>
+        <v>61011103</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -900,19 +901,19 @@
     </row>
     <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <v>51011105</v>
+        <v>51011104</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>61012105</v>
+        <v>61012104</v>
       </c>
       <c r="F17" s="1">
-        <v>61012105</v>
+        <v>61012104</v>
       </c>
       <c r="G17" s="1">
-        <v>61011105</v>
+        <v>61011104</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -926,19 +927,19 @@
     </row>
     <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <v>51011106</v>
+        <v>51011105</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>61012106</v>
+        <v>61012105</v>
       </c>
       <c r="F18" s="1">
-        <v>61012106</v>
+        <v>61012105</v>
       </c>
       <c r="G18" s="1">
-        <v>61011106</v>
+        <v>61011105</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -952,19 +953,19 @@
     </row>
     <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <v>51011201</v>
+        <v>51011106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>61012201</v>
+        <v>61012106</v>
       </c>
       <c r="F19" s="1">
-        <v>61012201</v>
+        <v>61012106</v>
       </c>
       <c r="G19" s="1">
-        <v>61011201</v>
+        <v>61011106</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -978,19 +979,19 @@
     </row>
     <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <v>51011202</v>
+        <v>51011201</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1">
-        <v>61012202</v>
+        <v>61012201</v>
       </c>
       <c r="F20" s="1">
-        <v>61012202</v>
+        <v>61012201</v>
       </c>
       <c r="G20" s="1">
-        <v>61011202</v>
+        <v>61011201</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1004,19 +1005,19 @@
     </row>
     <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <v>51011203</v>
+        <v>51011202</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1">
-        <v>61012203</v>
+        <v>61012202</v>
       </c>
       <c r="F21" s="1">
-        <v>61012203</v>
+        <v>61012202</v>
       </c>
       <c r="G21" s="1">
-        <v>61011203</v>
+        <v>61011202</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1030,19 +1031,19 @@
     </row>
     <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <v>51011204</v>
+        <v>51011203</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="1">
-        <v>61012204</v>
+        <v>61012203</v>
       </c>
       <c r="F22" s="1">
-        <v>61012204</v>
+        <v>61012203</v>
       </c>
       <c r="G22" s="1">
-        <v>61011204</v>
+        <v>61011203</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1054,21 +1055,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <v>51011205</v>
+        <v>51011204</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>61012205</v>
+        <v>61012204</v>
       </c>
       <c r="F23" s="1">
-        <v>61012205</v>
+        <v>61012204</v>
       </c>
       <c r="G23" s="1">
-        <v>61011205</v>
+        <v>61011204</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1082,45 +1083,45 @@
     </row>
     <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <v>51011206</v>
+        <v>51011205</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="1">
+        <v>61012205</v>
+      </c>
+      <c r="F24" s="1">
+        <v>61012205</v>
+      </c>
+      <c r="G24" s="1">
+        <v>61011205</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>51011206</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
         <v>61012206</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>61012206</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>61011206</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>51011301</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1">
-        <v>61012301</v>
-      </c>
-      <c r="F25" s="1">
-        <v>61012301</v>
-      </c>
-      <c r="G25" s="1">
-        <v>61011301</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1134,19 +1135,19 @@
     </row>
     <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <v>51011302</v>
+        <v>51011301</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>61012302</v>
+        <v>61012301</v>
       </c>
       <c r="F26" s="1">
-        <v>61012302</v>
+        <v>61012301</v>
       </c>
       <c r="G26" s="1">
-        <v>61011302</v>
+        <v>61011301</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1160,19 +1161,19 @@
     </row>
     <row r="27" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <v>51011303</v>
+        <v>51011302</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1">
-        <v>61012303</v>
+        <v>61012302</v>
       </c>
       <c r="F27" s="1">
-        <v>61012303</v>
+        <v>61012302</v>
       </c>
       <c r="G27" s="1">
-        <v>61011303</v>
+        <v>61011302</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1186,19 +1187,19 @@
     </row>
     <row r="28" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <v>51011304</v>
+        <v>51011303</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1">
-        <v>61012304</v>
+        <v>61012303</v>
       </c>
       <c r="F28" s="1">
-        <v>61012304</v>
+        <v>61012303</v>
       </c>
       <c r="G28" s="1">
-        <v>61011304</v>
+        <v>61011303</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1210,21 +1211,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <v>51011305</v>
+        <v>51011304</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1">
-        <v>61012305</v>
+        <v>61012304</v>
       </c>
       <c r="F29" s="1">
-        <v>61012305</v>
+        <v>61012304</v>
       </c>
       <c r="G29" s="1">
-        <v>61011305</v>
+        <v>61011304</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1238,19 +1239,19 @@
     </row>
     <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <v>51011306</v>
+        <v>51011305</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1">
-        <v>61012306</v>
+        <v>61012305</v>
       </c>
       <c r="F30" s="1">
-        <v>61012306</v>
+        <v>61012305</v>
       </c>
       <c r="G30" s="1">
-        <v>61011306</v>
+        <v>61011305</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1264,39 +1265,39 @@
     </row>
     <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <v>52011101</v>
+        <v>51011306</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
-        <v>62011101</v>
+        <v>61012306</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>61012306</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>61011306</v>
       </c>
       <c r="H31" s="1">
-        <v>62011101</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>62011201</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>62011201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <v>52011102</v>
+        <v>52011101</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="1">
-        <v>62011102</v>
+        <v>62011101</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1305,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>62011102</v>
+        <v>62011101</v>
       </c>
       <c r="I32" s="1">
-        <v>62011202</v>
+        <v>62011201</v>
       </c>
       <c r="J32" s="1">
-        <v>62011202</v>
+        <v>62011201</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <v>52011103</v>
+        <v>52011102</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="1">
-        <v>62011103</v>
+        <v>62011102</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1331,24 +1332,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>62011103</v>
+        <v>62011102</v>
       </c>
       <c r="I33" s="1">
-        <v>62011203</v>
+        <v>62011202</v>
       </c>
       <c r="J33" s="1">
-        <v>62011203</v>
+        <v>62011202</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <v>52011104</v>
+        <v>52011103</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="1">
-        <v>62011104</v>
+        <v>62011103</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1357,24 +1358,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>62011104</v>
+        <v>62011103</v>
       </c>
       <c r="I34" s="1">
-        <v>62011204</v>
+        <v>62011203</v>
       </c>
       <c r="J34" s="1">
-        <v>62011204</v>
+        <v>62011203</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <v>52011105</v>
+        <v>52011104</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="1">
-        <v>62011105</v>
+        <v>62011104</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1383,24 +1384,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>62011105</v>
+        <v>62011104</v>
       </c>
       <c r="I35" s="1">
-        <v>62011205</v>
+        <v>62011204</v>
       </c>
       <c r="J35" s="1">
-        <v>62011205</v>
+        <v>62011204</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <v>52011106</v>
+        <v>52011105</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="1">
-        <v>62011106</v>
+        <v>62011105</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1409,24 +1410,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>62011106</v>
+        <v>62011105</v>
       </c>
       <c r="I36" s="1">
-        <v>62011206</v>
+        <v>62011205</v>
       </c>
       <c r="J36" s="1">
-        <v>62011206</v>
+        <v>62011205</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <v>52011201</v>
+        <v>52011106</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1">
-        <v>62011301</v>
+        <v>62011106</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1435,24 +1436,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>62011301</v>
+        <v>62011106</v>
       </c>
       <c r="I37" s="1">
-        <v>62012101</v>
+        <v>62011206</v>
       </c>
       <c r="J37" s="1">
-        <v>62012101</v>
+        <v>62011206</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <v>52011202</v>
+        <v>52011201</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="1">
-        <v>62011302</v>
+        <v>62011301</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1461,24 +1462,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>62011302</v>
+        <v>62011301</v>
       </c>
       <c r="I38" s="1">
-        <v>62012102</v>
+        <v>62012101</v>
       </c>
       <c r="J38" s="1">
-        <v>62012102</v>
+        <v>62012101</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <v>52011203</v>
+        <v>52011202</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="1">
-        <v>62011303</v>
+        <v>62011302</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1487,24 +1488,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>62011303</v>
+        <v>62011302</v>
       </c>
       <c r="I39" s="1">
-        <v>62012103</v>
+        <v>62012102</v>
       </c>
       <c r="J39" s="1">
-        <v>62012103</v>
+        <v>62012102</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <v>52011204</v>
+        <v>52011203</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="1">
-        <v>62011304</v>
+        <v>62011303</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1513,24 +1514,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>62011304</v>
+        <v>62011303</v>
       </c>
       <c r="I40" s="1">
-        <v>62012104</v>
+        <v>62012103</v>
       </c>
       <c r="J40" s="1">
-        <v>62012104</v>
+        <v>62012103</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <v>52011205</v>
+        <v>52011204</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="1">
-        <v>62011305</v>
+        <v>62011304</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1539,24 +1540,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>62011305</v>
+        <v>62011304</v>
       </c>
       <c r="I41" s="1">
-        <v>62012105</v>
+        <v>62012104</v>
       </c>
       <c r="J41" s="1">
-        <v>62012105</v>
+        <v>62012104</v>
       </c>
     </row>
     <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <v>52011206</v>
+        <v>52011205</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1">
-        <v>62011306</v>
+        <v>62011305</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1565,24 +1566,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>62011306</v>
+        <v>62011305</v>
       </c>
       <c r="I42" s="1">
-        <v>62012106</v>
+        <v>62012105</v>
       </c>
       <c r="J42" s="1">
-        <v>62012106</v>
+        <v>62012105</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <v>52011301</v>
+        <v>52011206</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1">
-        <v>62012201</v>
+        <v>62011306</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1591,24 +1592,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>62012201</v>
+        <v>62011306</v>
       </c>
       <c r="I43" s="1">
-        <v>62012301</v>
+        <v>62012106</v>
       </c>
       <c r="J43" s="1">
-        <v>62012301</v>
+        <v>62012106</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <v>52011302</v>
+        <v>52011301</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>62012202</v>
+        <v>62012201</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1617,24 +1618,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>62012202</v>
+        <v>62012201</v>
       </c>
       <c r="I44" s="1">
-        <v>62012302</v>
+        <v>62012301</v>
       </c>
       <c r="J44" s="1">
-        <v>62012302</v>
+        <v>62012301</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <v>52011303</v>
+        <v>52011302</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1">
-        <v>62012203</v>
+        <v>62012202</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1643,24 +1644,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>62012203</v>
+        <v>62012202</v>
       </c>
       <c r="I45" s="1">
-        <v>62012303</v>
+        <v>62012302</v>
       </c>
       <c r="J45" s="1">
-        <v>62012303</v>
+        <v>62012302</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <v>52011304</v>
+        <v>52011303</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1">
-        <v>62012204</v>
+        <v>62012203</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1669,24 +1670,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>62012204</v>
+        <v>62012203</v>
       </c>
       <c r="I46" s="1">
-        <v>62012304</v>
+        <v>62012303</v>
       </c>
       <c r="J46" s="1">
-        <v>62012304</v>
+        <v>62012303</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <v>52011305</v>
+        <v>52011304</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1">
-        <v>62012205</v>
+        <v>62012204</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1695,24 +1696,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>62012205</v>
+        <v>62012204</v>
       </c>
       <c r="I47" s="1">
-        <v>62012305</v>
+        <v>62012304</v>
       </c>
       <c r="J47" s="1">
-        <v>62012305</v>
+        <v>62012304</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <v>52011306</v>
+        <v>52011305</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="1">
-        <v>62012206</v>
+        <v>62012205</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1721,53 +1722,53 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>62012206</v>
+        <v>62012205</v>
       </c>
       <c r="I48" s="1">
-        <v>62012306</v>
+        <v>62012305</v>
       </c>
       <c r="J48" s="1">
-        <v>62012306</v>
+        <v>62012305</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <v>53011101</v>
+        <v>52011306</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1">
-        <v>63011101</v>
+        <v>62012206</v>
       </c>
       <c r="F49" s="1">
-        <v>63011201</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>62012206</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>62012306</v>
       </c>
       <c r="J49" s="1">
-        <v>63011101</v>
+        <v>62012306</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <v>53011102</v>
+        <v>53011101</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="1">
-        <v>63011102</v>
+        <v>63011101</v>
       </c>
       <c r="F50" s="1">
-        <v>63011202</v>
+        <v>63011201</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -1779,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>63011102</v>
+        <v>63011101</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <v>53011103</v>
+        <v>53011102</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="1">
-        <v>63011103</v>
+        <v>63011102</v>
       </c>
       <c r="F51" s="1">
-        <v>63011203</v>
+        <v>63011202</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -1805,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>63011103</v>
+        <v>63011102</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <v>53011104</v>
+        <v>53011103</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1">
-        <v>63011104</v>
+        <v>63011103</v>
       </c>
       <c r="F52" s="1">
-        <v>63011204</v>
+        <v>63011203</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -1831,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>63011104</v>
+        <v>63011103</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <v>53011105</v>
+        <v>53011104</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="1">
-        <v>63011105</v>
+        <v>63011104</v>
       </c>
       <c r="F53" s="1">
-        <v>63011205</v>
+        <v>63011204</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -1857,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>63011105</v>
+        <v>63011104</v>
       </c>
     </row>
     <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <v>53011106</v>
+        <v>53011105</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1">
-        <v>63011106</v>
+        <v>63011105</v>
       </c>
       <c r="F54" s="1">
-        <v>63011206</v>
+        <v>63011205</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -1883,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>63011106</v>
+        <v>63011105</v>
       </c>
     </row>
     <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <v>53011201</v>
+        <v>53011106</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1">
-        <v>63011301</v>
+        <v>63011106</v>
       </c>
       <c r="F55" s="1">
-        <v>63012101</v>
+        <v>63011206</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -1909,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>63011301</v>
+        <v>63011106</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
-        <v>53011202</v>
+        <v>53011201</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="1">
-        <v>63011302</v>
+        <v>63011301</v>
       </c>
       <c r="F56" s="1">
-        <v>63012102</v>
+        <v>63012101</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -1935,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>63011302</v>
+        <v>63011301</v>
       </c>
     </row>
     <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
-        <v>53011203</v>
+        <v>53011202</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="1">
-        <v>63011303</v>
+        <v>63011302</v>
       </c>
       <c r="F57" s="1">
-        <v>63012103</v>
+        <v>63012102</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -1961,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>63011303</v>
+        <v>63011302</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
-        <v>53011204</v>
+        <v>53011203</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1">
-        <v>63011304</v>
+        <v>63011303</v>
       </c>
       <c r="F58" s="1">
-        <v>63012104</v>
+        <v>63012103</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -1987,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>63011304</v>
+        <v>63011303</v>
       </c>
     </row>
     <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
-        <v>53011205</v>
+        <v>53011204</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="1">
-        <v>63011305</v>
+        <v>63011304</v>
       </c>
       <c r="F59" s="1">
-        <v>63012105</v>
+        <v>63012104</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2013,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>63011305</v>
+        <v>63011304</v>
       </c>
     </row>
     <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
-        <v>53011206</v>
+        <v>53011205</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="1">
-        <v>63011306</v>
+        <v>63011305</v>
       </c>
       <c r="F60" s="1">
-        <v>63012106</v>
+        <v>63012105</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2039,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>63011306</v>
+        <v>63011305</v>
       </c>
     </row>
     <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
-        <v>53011301</v>
+        <v>53011206</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1">
-        <v>63012201</v>
+        <v>63011306</v>
       </c>
       <c r="F61" s="1">
-        <v>63012301</v>
+        <v>63012106</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2065,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>63012201</v>
+        <v>63011306</v>
       </c>
     </row>
     <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
-        <v>53011302</v>
+        <v>53011301</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="1">
-        <v>63012202</v>
+        <v>63012201</v>
       </c>
       <c r="F62" s="1">
-        <v>63012302</v>
+        <v>63012301</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2091,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>63012202</v>
+        <v>63012201</v>
       </c>
     </row>
     <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
-        <v>53011303</v>
+        <v>53011302</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="1">
-        <v>63012203</v>
+        <v>63012202</v>
       </c>
       <c r="F63" s="1">
-        <v>63012303</v>
+        <v>63012302</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2117,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>63012203</v>
+        <v>63012202</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
-        <v>53011304</v>
+        <v>53011303</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="1">
-        <v>63012204</v>
+        <v>63012203</v>
       </c>
       <c r="F64" s="1">
-        <v>63012304</v>
+        <v>63012303</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2143,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>63012204</v>
+        <v>63012203</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
-        <v>53011305</v>
+        <v>53011304</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="1">
-        <v>63012205</v>
+        <v>63012204</v>
       </c>
       <c r="F65" s="1">
-        <v>63012305</v>
+        <v>63012304</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2169,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>63012205</v>
+        <v>63012204</v>
       </c>
     </row>
     <row r="66" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
-        <v>53011306</v>
+        <v>53011305</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="1">
-        <v>63012206</v>
+        <v>63012205</v>
       </c>
       <c r="F66" s="1">
-        <v>63012306</v>
+        <v>63012305</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2195,56 +2196,56 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>63012206</v>
+        <v>63012205</v>
       </c>
     </row>
     <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
-        <v>54011101</v>
+        <v>53011306</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="4">
-        <v>64011101</v>
+        <v>23</v>
+      </c>
+      <c r="E67" s="1">
+        <v>63012206</v>
       </c>
       <c r="F67" s="1">
-        <v>63011201</v>
+        <v>63012306</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="4">
-        <v>64011101</v>
-      </c>
-      <c r="I67" s="5">
-        <v>64012101</v>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>63012206</v>
       </c>
     </row>
     <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
-        <v>54011102</v>
+        <v>54011101</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E68" s="4">
-        <v>64011102</v>
+        <v>64011101</v>
       </c>
       <c r="F68" s="1">
-        <v>63011202</v>
+        <v>63011201</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>64011102</v>
+        <v>64011101</v>
       </c>
       <c r="I68" s="5">
-        <v>64012102</v>
+        <v>64012101</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -2252,25 +2253,25 @@
     </row>
     <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
-        <v>54011103</v>
+        <v>54011102</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="4">
-        <v>64011103</v>
+        <v>64011102</v>
       </c>
       <c r="F69" s="1">
-        <v>63011203</v>
+        <v>63011202</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>64011103</v>
+        <v>64011102</v>
       </c>
       <c r="I69" s="5">
-        <v>64012103</v>
+        <v>64012102</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -2278,25 +2279,25 @@
     </row>
     <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
-        <v>54011104</v>
+        <v>54011103</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="4">
-        <v>64011104</v>
+        <v>64011103</v>
       </c>
       <c r="F70" s="1">
-        <v>63011204</v>
+        <v>63011203</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>64011104</v>
+        <v>64011103</v>
       </c>
       <c r="I70" s="5">
-        <v>64012104</v>
+        <v>64012103</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -2304,25 +2305,25 @@
     </row>
     <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
-        <v>54011105</v>
+        <v>54011104</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="4">
-        <v>64011105</v>
+        <v>64011104</v>
       </c>
       <c r="F71" s="1">
-        <v>63011205</v>
+        <v>63011204</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>64011105</v>
+        <v>64011104</v>
       </c>
       <c r="I71" s="5">
-        <v>64012105</v>
+        <v>64012104</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -2330,25 +2331,25 @@
     </row>
     <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
-        <v>54011106</v>
+        <v>54011105</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E72" s="4">
-        <v>64011106</v>
+        <v>64011105</v>
       </c>
       <c r="F72" s="1">
-        <v>63011206</v>
+        <v>63011205</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>64011106</v>
+        <v>64011105</v>
       </c>
       <c r="I72" s="5">
-        <v>64012106</v>
+        <v>64012105</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -2356,25 +2357,25 @@
     </row>
     <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
-        <v>54011201</v>
+        <v>54011106</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="5">
-        <v>64011201</v>
+        <v>26</v>
+      </c>
+      <c r="E73" s="4">
+        <v>64011106</v>
       </c>
       <c r="F73" s="1">
-        <v>63012101</v>
+        <v>63011206</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
-      <c r="H73" s="5">
-        <v>64011201</v>
-      </c>
-      <c r="I73" s="4">
-        <v>64012201</v>
+      <c r="H73" s="4">
+        <v>64011106</v>
+      </c>
+      <c r="I73" s="5">
+        <v>64012106</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -2382,25 +2383,25 @@
     </row>
     <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
-        <v>54011202</v>
+        <v>54011201</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="5">
-        <v>64011202</v>
+        <v>64011201</v>
       </c>
       <c r="F74" s="1">
-        <v>63012102</v>
+        <v>63012101</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="5">
-        <v>64011202</v>
+        <v>64011201</v>
       </c>
       <c r="I74" s="4">
-        <v>64012202</v>
+        <v>64012201</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -2408,25 +2409,25 @@
     </row>
     <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
-        <v>54011203</v>
+        <v>54011202</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="5">
-        <v>64011203</v>
+        <v>64011202</v>
       </c>
       <c r="F75" s="1">
-        <v>63012103</v>
+        <v>63012102</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>64011203</v>
+        <v>64011202</v>
       </c>
       <c r="I75" s="4">
-        <v>64012203</v>
+        <v>64012202</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -2434,25 +2435,25 @@
     </row>
     <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
-        <v>54011204</v>
+        <v>54011203</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="5">
-        <v>64011204</v>
+        <v>64011203</v>
       </c>
       <c r="F76" s="1">
-        <v>63012104</v>
+        <v>63012103</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>64011204</v>
+        <v>64011203</v>
       </c>
       <c r="I76" s="4">
-        <v>64012204</v>
+        <v>64012203</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -2460,25 +2461,25 @@
     </row>
     <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
-        <v>54011205</v>
+        <v>54011204</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="5">
-        <v>64011205</v>
+        <v>64011204</v>
       </c>
       <c r="F77" s="1">
-        <v>63012105</v>
+        <v>63012104</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>64011205</v>
+        <v>64011204</v>
       </c>
       <c r="I77" s="4">
-        <v>64012205</v>
+        <v>64012204</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -2486,25 +2487,25 @@
     </row>
     <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
-        <v>54011206</v>
+        <v>54011205</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="5">
-        <v>64011206</v>
+        <v>64011205</v>
       </c>
       <c r="F78" s="1">
-        <v>63012106</v>
+        <v>63012105</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>64011206</v>
+        <v>64011205</v>
       </c>
       <c r="I78" s="4">
-        <v>64012206</v>
+        <v>64012205</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -2512,25 +2513,25 @@
     </row>
     <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
-        <v>54011301</v>
+        <v>54011206</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="4">
-        <v>64011301</v>
+        <v>27</v>
+      </c>
+      <c r="E79" s="5">
+        <v>64011206</v>
       </c>
       <c r="F79" s="1">
-        <v>63012301</v>
+        <v>63012106</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="4">
-        <v>64011301</v>
-      </c>
-      <c r="I79" s="5">
-        <v>64012301</v>
+      <c r="H79" s="5">
+        <v>64011206</v>
+      </c>
+      <c r="I79" s="4">
+        <v>64012206</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -2538,25 +2539,25 @@
     </row>
     <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
-        <v>54011302</v>
+        <v>54011301</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="4">
-        <v>64011302</v>
+        <v>64011301</v>
       </c>
       <c r="F80" s="1">
-        <v>63012302</v>
+        <v>63012301</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>64011302</v>
+        <v>64011301</v>
       </c>
       <c r="I80" s="5">
-        <v>64012302</v>
+        <v>64012301</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -2564,25 +2565,25 @@
     </row>
     <row r="81" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
-        <v>54011303</v>
+        <v>54011302</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="4">
-        <v>64011303</v>
+        <v>64011302</v>
       </c>
       <c r="F81" s="1">
-        <v>63012303</v>
+        <v>63012302</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <v>64011303</v>
+        <v>64011302</v>
       </c>
       <c r="I81" s="5">
-        <v>64012303</v>
+        <v>64012302</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -2590,25 +2591,25 @@
     </row>
     <row r="82" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
-        <v>54011304</v>
+        <v>54011303</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="4">
-        <v>64011304</v>
+        <v>64011303</v>
       </c>
       <c r="F82" s="1">
-        <v>63012304</v>
+        <v>63012303</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>64011304</v>
+        <v>64011303</v>
       </c>
       <c r="I82" s="5">
-        <v>64012304</v>
+        <v>64012303</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -2616,25 +2617,25 @@
     </row>
     <row r="83" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
-        <v>54011305</v>
+        <v>54011304</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E83" s="4">
-        <v>64011305</v>
+        <v>64011304</v>
       </c>
       <c r="F83" s="1">
-        <v>63012305</v>
+        <v>63012304</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <v>64011305</v>
+        <v>64011304</v>
       </c>
       <c r="I83" s="5">
-        <v>64012305</v>
+        <v>64012304</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -2642,31 +2643,56 @@
     </row>
     <row r="84" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
-        <v>54011306</v>
+        <v>54011305</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E84" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="F84" s="1">
+        <v>63012305</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="I84" s="5">
+        <v>64012305</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>54011306</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="4">
         <v>64011306</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F85" s="1">
         <v>63012306</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
         <v>64011306</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I85" s="5">
         <v>64012306</v>
       </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="86" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2694,6 +2720,7 @@
     <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4708F5A-712D-46C9-A869-247A3CC30CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCC4C5-BD9E-456B-8BC2-63BDBFC0658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="C1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FCC4C5-BD9E-456B-8BC2-63BDBFC0658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB2C87-7C8F-4C57-8A40-56DD7F5A3315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="C1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>60000601</v>
+        <v>60000701</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB2C87-7C8F-4C57-8A40-56DD7F5A3315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC7CCA8-E777-4387-B80E-1D5EB404B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC7CCA8-E777-4387-B80E-1D5EB404B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459901A-F84E-45A4-9028-C726474AA506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="C1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/SkillWeaponConfig.xlsx
+++ b/Excel/SkillWeaponConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459901A-F84E-45A4-9028-C726474AA506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296AA41A-646E-4B2A-B4A7-97E5DEE5EB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J113"/>
+  <dimension ref="C1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,25 +823,25 @@
     </row>
     <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <v>51011101</v>
+        <v>50000402</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>61012101</v>
+        <v>60000701</v>
       </c>
       <c r="F14" s="1">
-        <v>61012101</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>61011101</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>60000601</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>60000701</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -849,19 +849,19 @@
     </row>
     <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <v>51011102</v>
+        <v>51011101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>61012102</v>
+        <v>61012101</v>
       </c>
       <c r="F15" s="1">
-        <v>61012102</v>
+        <v>61012101</v>
       </c>
       <c r="G15" s="1">
-        <v>61011102</v>
+        <v>61011101</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -875,19 +875,19 @@
     </row>
     <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <v>51011103</v>
+        <v>51011102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>61012103</v>
+        <v>61012102</v>
       </c>
       <c r="F16" s="1">
-        <v>61012103</v>
+        <v>61012102</v>
       </c>
       <c r="G16" s="1">
-        <v>61011103</v>
+        <v>61011102</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -901,19 +901,19 @@
     </row>
     <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <v>51011104</v>
+        <v>51011103</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>61012104</v>
+        <v>61012103</v>
       </c>
       <c r="F17" s="1">
-        <v>61012104</v>
+        <v>61012103</v>
       </c>
       <c r="G17" s="1">
-        <v>61011104</v>
+        <v>61011103</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <v>51011105</v>
+        <v>51011104</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>61012105</v>
+        <v>61012104</v>
       </c>
       <c r="F18" s="1">
-        <v>61012105</v>
+        <v>61012104</v>
       </c>
       <c r="G18" s="1">
-        <v>61011105</v>
+        <v>61011104</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -953,19 +953,19 @@
     </row>
     <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <v>51011106</v>
+        <v>51011105</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>61012106</v>
+        <v>61012105</v>
       </c>
       <c r="F19" s="1">
-        <v>61012106</v>
+        <v>61012105</v>
       </c>
       <c r="G19" s="1">
-        <v>61011106</v>
+        <v>61011105</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -979,19 +979,19 @@
     </row>
     <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <v>51011201</v>
+        <v>51011106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>61012201</v>
+        <v>61012106</v>
       </c>
       <c r="F20" s="1">
-        <v>61012201</v>
+        <v>61012106</v>
       </c>
       <c r="G20" s="1">
-        <v>61011201</v>
+        <v>61011106</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1005,19 +1005,19 @@
     </row>
     <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <v>51011202</v>
+        <v>51011201</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1">
-        <v>61012202</v>
+        <v>61012201</v>
       </c>
       <c r="F21" s="1">
-        <v>61012202</v>
+        <v>61012201</v>
       </c>
       <c r="G21" s="1">
-        <v>61011202</v>
+        <v>61011201</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1031,19 +1031,19 @@
     </row>
     <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <v>51011203</v>
+        <v>51011202</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="1">
-        <v>61012203</v>
+        <v>61012202</v>
       </c>
       <c r="F22" s="1">
-        <v>61012203</v>
+        <v>61012202</v>
       </c>
       <c r="G22" s="1">
-        <v>61011203</v>
+        <v>61011202</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1057,19 +1057,19 @@
     </row>
     <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <v>51011204</v>
+        <v>51011203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>61012204</v>
+        <v>61012203</v>
       </c>
       <c r="F23" s="1">
-        <v>61012204</v>
+        <v>61012203</v>
       </c>
       <c r="G23" s="1">
-        <v>61011204</v>
+        <v>61011203</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1081,21 +1081,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <v>51011205</v>
+        <v>51011204</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>61012205</v>
+        <v>61012204</v>
       </c>
       <c r="F24" s="1">
-        <v>61012205</v>
+        <v>61012204</v>
       </c>
       <c r="G24" s="1">
-        <v>61011205</v>
+        <v>61011204</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1109,45 +1109,45 @@
     </row>
     <row r="25" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <v>51011206</v>
+        <v>51011205</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="1">
+        <v>61012205</v>
+      </c>
+      <c r="F25" s="1">
+        <v>61012205</v>
+      </c>
+      <c r="G25" s="1">
+        <v>61011205</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>51011206</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
         <v>61012206</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>61012206</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>61011206</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>51011301</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1">
-        <v>61012301</v>
-      </c>
-      <c r="F26" s="1">
-        <v>61012301</v>
-      </c>
-      <c r="G26" s="1">
-        <v>61011301</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="27" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <v>51011302</v>
+        <v>51011301</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1">
-        <v>61012302</v>
+        <v>61012301</v>
       </c>
       <c r="F27" s="1">
-        <v>61012302</v>
+        <v>61012301</v>
       </c>
       <c r="G27" s="1">
-        <v>61011302</v>
+        <v>61011301</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="28" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <v>51011303</v>
+        <v>51011302</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1">
-        <v>61012303</v>
+        <v>61012302</v>
       </c>
       <c r="F28" s="1">
-        <v>61012303</v>
+        <v>61012302</v>
       </c>
       <c r="G28" s="1">
-        <v>61011303</v>
+        <v>61011302</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1213,19 +1213,19 @@
     </row>
     <row r="29" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <v>51011304</v>
+        <v>51011303</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1">
-        <v>61012304</v>
+        <v>61012303</v>
       </c>
       <c r="F29" s="1">
-        <v>61012304</v>
+        <v>61012303</v>
       </c>
       <c r="G29" s="1">
-        <v>61011304</v>
+        <v>61011303</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1237,21 +1237,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <v>51011305</v>
+        <v>51011304</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1">
-        <v>61012305</v>
+        <v>61012304</v>
       </c>
       <c r="F30" s="1">
-        <v>61012305</v>
+        <v>61012304</v>
       </c>
       <c r="G30" s="1">
-        <v>61011305</v>
+        <v>61011304</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <v>51011306</v>
+        <v>51011305</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1">
-        <v>61012306</v>
+        <v>61012305</v>
       </c>
       <c r="F31" s="1">
-        <v>61012306</v>
+        <v>61012305</v>
       </c>
       <c r="G31" s="1">
-        <v>61011306</v>
+        <v>61011305</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1291,39 +1291,39 @@
     </row>
     <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <v>52011101</v>
+        <v>51011306</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1">
-        <v>62011101</v>
+        <v>61012306</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>61012306</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>61011306</v>
       </c>
       <c r="H32" s="1">
-        <v>62011101</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>62011201</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>62011201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <v>52011102</v>
+        <v>52011101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="1">
-        <v>62011102</v>
+        <v>62011101</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -1332,24 +1332,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>62011102</v>
+        <v>62011101</v>
       </c>
       <c r="I33" s="1">
-        <v>62011202</v>
+        <v>62011201</v>
       </c>
       <c r="J33" s="1">
-        <v>62011202</v>
+        <v>62011201</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <v>52011103</v>
+        <v>52011102</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="1">
-        <v>62011103</v>
+        <v>62011102</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1358,24 +1358,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>62011103</v>
+        <v>62011102</v>
       </c>
       <c r="I34" s="1">
-        <v>62011203</v>
+        <v>62011202</v>
       </c>
       <c r="J34" s="1">
-        <v>62011203</v>
+        <v>62011202</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <v>52011104</v>
+        <v>52011103</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="1">
-        <v>62011104</v>
+        <v>62011103</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1384,24 +1384,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>62011104</v>
+        <v>62011103</v>
       </c>
       <c r="I35" s="1">
-        <v>62011204</v>
+        <v>62011203</v>
       </c>
       <c r="J35" s="1">
-        <v>62011204</v>
+        <v>62011203</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <v>52011105</v>
+        <v>52011104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="1">
-        <v>62011105</v>
+        <v>62011104</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1410,24 +1410,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>62011105</v>
+        <v>62011104</v>
       </c>
       <c r="I36" s="1">
-        <v>62011205</v>
+        <v>62011204</v>
       </c>
       <c r="J36" s="1">
-        <v>62011205</v>
+        <v>62011204</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <v>52011106</v>
+        <v>52011105</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="1">
-        <v>62011106</v>
+        <v>62011105</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1436,24 +1436,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>62011106</v>
+        <v>62011105</v>
       </c>
       <c r="I37" s="1">
-        <v>62011206</v>
+        <v>62011205</v>
       </c>
       <c r="J37" s="1">
-        <v>62011206</v>
+        <v>62011205</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <v>52011201</v>
+        <v>52011106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1">
-        <v>62011301</v>
+        <v>62011106</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1462,24 +1462,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>62011301</v>
+        <v>62011106</v>
       </c>
       <c r="I38" s="1">
-        <v>62012101</v>
+        <v>62011206</v>
       </c>
       <c r="J38" s="1">
-        <v>62012101</v>
+        <v>62011206</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <v>52011202</v>
+        <v>52011201</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="1">
-        <v>62011302</v>
+        <v>62011301</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1488,24 +1488,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>62011302</v>
+        <v>62011301</v>
       </c>
       <c r="I39" s="1">
-        <v>62012102</v>
+        <v>62012101</v>
       </c>
       <c r="J39" s="1">
-        <v>62012102</v>
+        <v>62012101</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <v>52011203</v>
+        <v>52011202</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="1">
-        <v>62011303</v>
+        <v>62011302</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1514,24 +1514,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>62011303</v>
+        <v>62011302</v>
       </c>
       <c r="I40" s="1">
-        <v>62012103</v>
+        <v>62012102</v>
       </c>
       <c r="J40" s="1">
-        <v>62012103</v>
+        <v>62012102</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <v>52011204</v>
+        <v>52011203</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="1">
-        <v>62011304</v>
+        <v>62011303</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1540,24 +1540,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>62011304</v>
+        <v>62011303</v>
       </c>
       <c r="I41" s="1">
-        <v>62012104</v>
+        <v>62012103</v>
       </c>
       <c r="J41" s="1">
-        <v>62012104</v>
+        <v>62012103</v>
       </c>
     </row>
     <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <v>52011205</v>
+        <v>52011204</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1">
-        <v>62011305</v>
+        <v>62011304</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1566,24 +1566,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>62011305</v>
+        <v>62011304</v>
       </c>
       <c r="I42" s="1">
-        <v>62012105</v>
+        <v>62012104</v>
       </c>
       <c r="J42" s="1">
-        <v>62012105</v>
+        <v>62012104</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <v>52011206</v>
+        <v>52011205</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="1">
-        <v>62011306</v>
+        <v>62011305</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1592,24 +1592,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>62011306</v>
+        <v>62011305</v>
       </c>
       <c r="I43" s="1">
-        <v>62012106</v>
+        <v>62012105</v>
       </c>
       <c r="J43" s="1">
-        <v>62012106</v>
+        <v>62012105</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <v>52011301</v>
+        <v>52011206</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1">
-        <v>62012201</v>
+        <v>62011306</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1618,24 +1618,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>62012201</v>
+        <v>62011306</v>
       </c>
       <c r="I44" s="1">
-        <v>62012301</v>
+        <v>62012106</v>
       </c>
       <c r="J44" s="1">
-        <v>62012301</v>
+        <v>62012106</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <v>52011302</v>
+        <v>52011301</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1">
-        <v>62012202</v>
+        <v>62012201</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1644,24 +1644,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>62012202</v>
+        <v>62012201</v>
       </c>
       <c r="I45" s="1">
-        <v>62012302</v>
+        <v>62012301</v>
       </c>
       <c r="J45" s="1">
-        <v>62012302</v>
+        <v>62012301</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <v>52011303</v>
+        <v>52011302</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1">
-        <v>62012203</v>
+        <v>62012202</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1670,24 +1670,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>62012203</v>
+        <v>62012202</v>
       </c>
       <c r="I46" s="1">
-        <v>62012303</v>
+        <v>62012302</v>
       </c>
       <c r="J46" s="1">
-        <v>62012303</v>
+        <v>62012302</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <v>52011304</v>
+        <v>52011303</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1">
-        <v>62012204</v>
+        <v>62012203</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1696,24 +1696,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>62012204</v>
+        <v>62012203</v>
       </c>
       <c r="I47" s="1">
-        <v>62012304</v>
+        <v>62012303</v>
       </c>
       <c r="J47" s="1">
-        <v>62012304</v>
+        <v>62012303</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <v>52011305</v>
+        <v>52011304</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="1">
-        <v>62012205</v>
+        <v>62012204</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1722,24 +1722,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>62012205</v>
+        <v>62012204</v>
       </c>
       <c r="I48" s="1">
-        <v>62012305</v>
+        <v>62012304</v>
       </c>
       <c r="J48" s="1">
-        <v>62012305</v>
+        <v>62012304</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <v>52011306</v>
+        <v>52011305</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="1">
-        <v>62012206</v>
+        <v>62012205</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1748,53 +1748,53 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>62012206</v>
+        <v>62012205</v>
       </c>
       <c r="I49" s="1">
-        <v>62012306</v>
+        <v>62012305</v>
       </c>
       <c r="J49" s="1">
-        <v>62012306</v>
+        <v>62012305</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <v>53011101</v>
+        <v>52011306</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
-        <v>63011101</v>
+        <v>62012206</v>
       </c>
       <c r="F50" s="1">
-        <v>63011201</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>62012206</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>62012306</v>
       </c>
       <c r="J50" s="1">
-        <v>63011101</v>
+        <v>62012306</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <v>53011102</v>
+        <v>53011101</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="1">
-        <v>63011102</v>
+        <v>63011101</v>
       </c>
       <c r="F51" s="1">
-        <v>63011202</v>
+        <v>63011201</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -1806,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>63011102</v>
+        <v>63011101</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <v>53011103</v>
+        <v>53011102</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1">
-        <v>63011103</v>
+        <v>63011102</v>
       </c>
       <c r="F52" s="1">
-        <v>63011203</v>
+        <v>63011202</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -1832,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>63011103</v>
+        <v>63011102</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <v>53011104</v>
+        <v>53011103</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="1">
-        <v>63011104</v>
+        <v>63011103</v>
       </c>
       <c r="F53" s="1">
-        <v>63011204</v>
+        <v>63011203</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -1858,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>63011104</v>
+        <v>63011103</v>
       </c>
     </row>
     <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <v>53011105</v>
+        <v>53011104</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1">
-        <v>63011105</v>
+        <v>63011104</v>
       </c>
       <c r="F54" s="1">
-        <v>63011205</v>
+        <v>63011204</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -1884,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>63011105</v>
+        <v>63011104</v>
       </c>
     </row>
     <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <v>53011106</v>
+        <v>53011105</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="1">
-        <v>63011106</v>
+        <v>63011105</v>
       </c>
       <c r="F55" s="1">
-        <v>63011206</v>
+        <v>63011205</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -1910,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>63011106</v>
+        <v>63011105</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
-        <v>53011201</v>
+        <v>53011106</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1">
-        <v>63011301</v>
+        <v>63011106</v>
       </c>
       <c r="F56" s="1">
-        <v>63012101</v>
+        <v>63011206</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -1936,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>63011301</v>
+        <v>63011106</v>
       </c>
     </row>
     <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
-        <v>53011202</v>
+        <v>53011201</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="1">
-        <v>63011302</v>
+        <v>63011301</v>
       </c>
       <c r="F57" s="1">
-        <v>63012102</v>
+        <v>63012101</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -1962,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>63011302</v>
+        <v>63011301</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
-        <v>53011203</v>
+        <v>53011202</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1">
-        <v>63011303</v>
+        <v>63011302</v>
       </c>
       <c r="F58" s="1">
-        <v>63012103</v>
+        <v>63012102</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -1988,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>63011303</v>
+        <v>63011302</v>
       </c>
     </row>
     <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
-        <v>53011204</v>
+        <v>53011203</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="1">
-        <v>63011304</v>
+        <v>63011303</v>
       </c>
       <c r="F59" s="1">
-        <v>63012104</v>
+        <v>63012103</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2014,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>63011304</v>
+        <v>63011303</v>
       </c>
     </row>
     <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
-        <v>53011205</v>
+        <v>53011204</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E60" s="1">
-        <v>63011305</v>
+        <v>63011304</v>
       </c>
       <c r="F60" s="1">
-        <v>63012105</v>
+        <v>63012104</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2040,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>63011305</v>
+        <v>63011304</v>
       </c>
     </row>
     <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
-        <v>53011206</v>
+        <v>53011205</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="1">
-        <v>63011306</v>
+        <v>63011305</v>
       </c>
       <c r="F61" s="1">
-        <v>63012106</v>
+        <v>63012105</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2066,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>63011306</v>
+        <v>63011305</v>
       </c>
     </row>
     <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
-        <v>53011301</v>
+        <v>53011206</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E62" s="1">
-        <v>63012201</v>
+        <v>63011306</v>
       </c>
       <c r="F62" s="1">
-        <v>63012301</v>
+        <v>63012106</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2092,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>63012201</v>
+        <v>63011306</v>
       </c>
     </row>
     <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
-        <v>53011302</v>
+        <v>53011301</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="1">
-        <v>63012202</v>
+        <v>63012201</v>
       </c>
       <c r="F63" s="1">
-        <v>63012302</v>
+        <v>63012301</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2118,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>63012202</v>
+        <v>63012201</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
-        <v>53011303</v>
+        <v>53011302</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="1">
-        <v>63012203</v>
+        <v>63012202</v>
       </c>
       <c r="F64" s="1">
-        <v>63012303</v>
+        <v>63012302</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2144,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>63012203</v>
+        <v>63012202</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
-        <v>53011304</v>
+        <v>53011303</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="1">
-        <v>63012204</v>
+        <v>63012203</v>
       </c>
       <c r="F65" s="1">
-        <v>63012304</v>
+        <v>63012303</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2170,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>63012204</v>
+        <v>63012203</v>
       </c>
     </row>
     <row r="66" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
-        <v>53011305</v>
+        <v>53011304</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="1">
-        <v>63012205</v>
+        <v>63012204</v>
       </c>
       <c r="F66" s="1">
-        <v>63012305</v>
+        <v>63012304</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2196,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>63012205</v>
+        <v>63012204</v>
       </c>
     </row>
     <row r="67" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
-        <v>53011306</v>
+        <v>53011305</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="1">
-        <v>63012206</v>
+        <v>63012205</v>
       </c>
       <c r="F67" s="1">
-        <v>63012306</v>
+        <v>63012305</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2222,56 +2222,56 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>63012206</v>
+        <v>63012205</v>
       </c>
     </row>
     <row r="68" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
-        <v>54011101</v>
+        <v>53011306</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="4">
-        <v>64011101</v>
+        <v>23</v>
+      </c>
+      <c r="E68" s="1">
+        <v>63012206</v>
       </c>
       <c r="F68" s="1">
-        <v>63011201</v>
+        <v>63012306</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="4">
-        <v>64011101</v>
-      </c>
-      <c r="I68" s="5">
-        <v>64012101</v>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>63012206</v>
       </c>
     </row>
     <row r="69" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
-        <v>54011102</v>
+        <v>54011101</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="4">
-        <v>64011102</v>
+        <v>64011101</v>
       </c>
       <c r="F69" s="1">
-        <v>63011202</v>
+        <v>63011201</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <v>64011102</v>
+        <v>64011101</v>
       </c>
       <c r="I69" s="5">
-        <v>64012102</v>
+        <v>64012101</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -2279,25 +2279,25 @@
     </row>
     <row r="70" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
-        <v>54011103</v>
+        <v>54011102</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="4">
-        <v>64011103</v>
+        <v>64011102</v>
       </c>
       <c r="F70" s="1">
-        <v>63011203</v>
+        <v>63011202</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>64011103</v>
+        <v>64011102</v>
       </c>
       <c r="I70" s="5">
-        <v>64012103</v>
+        <v>64012102</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -2305,25 +2305,25 @@
     </row>
     <row r="71" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
-        <v>54011104</v>
+        <v>54011103</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="4">
-        <v>64011104</v>
+        <v>64011103</v>
       </c>
       <c r="F71" s="1">
-        <v>63011204</v>
+        <v>63011203</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>64011104</v>
+        <v>64011103</v>
       </c>
       <c r="I71" s="5">
-        <v>64012104</v>
+        <v>64012103</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -2331,25 +2331,25 @@
     </row>
     <row r="72" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
-        <v>54011105</v>
+        <v>54011104</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E72" s="4">
-        <v>64011105</v>
+        <v>64011104</v>
       </c>
       <c r="F72" s="1">
-        <v>63011205</v>
+        <v>63011204</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>64011105</v>
+        <v>64011104</v>
       </c>
       <c r="I72" s="5">
-        <v>64012105</v>
+        <v>64012104</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -2357,25 +2357,25 @@
     </row>
     <row r="73" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
-        <v>54011106</v>
+        <v>54011105</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E73" s="4">
-        <v>64011106</v>
+        <v>64011105</v>
       </c>
       <c r="F73" s="1">
-        <v>63011206</v>
+        <v>63011205</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>64011106</v>
+        <v>64011105</v>
       </c>
       <c r="I73" s="5">
-        <v>64012106</v>
+        <v>64012105</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -2383,25 +2383,25 @@
     </row>
     <row r="74" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="1">
-        <v>54011201</v>
+        <v>54011106</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="5">
-        <v>64011201</v>
+        <v>26</v>
+      </c>
+      <c r="E74" s="4">
+        <v>64011106</v>
       </c>
       <c r="F74" s="1">
-        <v>63012101</v>
+        <v>63011206</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
       </c>
-      <c r="H74" s="5">
-        <v>64011201</v>
-      </c>
-      <c r="I74" s="4">
-        <v>64012201</v>
+      <c r="H74" s="4">
+        <v>64011106</v>
+      </c>
+      <c r="I74" s="5">
+        <v>64012106</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -2409,25 +2409,25 @@
     </row>
     <row r="75" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
-        <v>54011202</v>
+        <v>54011201</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="5">
-        <v>64011202</v>
+        <v>64011201</v>
       </c>
       <c r="F75" s="1">
-        <v>63012102</v>
+        <v>63012101</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>64011202</v>
+        <v>64011201</v>
       </c>
       <c r="I75" s="4">
-        <v>64012202</v>
+        <v>64012201</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -2435,25 +2435,25 @@
     </row>
     <row r="76" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
-        <v>54011203</v>
+        <v>54011202</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="5">
-        <v>64011203</v>
+        <v>64011202</v>
       </c>
       <c r="F76" s="1">
-        <v>63012103</v>
+        <v>63012102</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>64011203</v>
+        <v>64011202</v>
       </c>
       <c r="I76" s="4">
-        <v>64012203</v>
+        <v>64012202</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -2461,25 +2461,25 @@
     </row>
     <row r="77" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
-        <v>54011204</v>
+        <v>54011203</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="5">
-        <v>64011204</v>
+        <v>64011203</v>
       </c>
       <c r="F77" s="1">
-        <v>63012104</v>
+        <v>63012103</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>64011204</v>
+        <v>64011203</v>
       </c>
       <c r="I77" s="4">
-        <v>64012204</v>
+        <v>64012203</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -2487,25 +2487,25 @@
     </row>
     <row r="78" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
-        <v>54011205</v>
+        <v>54011204</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="5">
-        <v>64011205</v>
+        <v>64011204</v>
       </c>
       <c r="F78" s="1">
-        <v>63012105</v>
+        <v>63012104</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>64011205</v>
+        <v>64011204</v>
       </c>
       <c r="I78" s="4">
-        <v>64012205</v>
+        <v>64012204</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -2513,25 +2513,25 @@
     </row>
     <row r="79" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="1">
-        <v>54011206</v>
+        <v>54011205</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="5">
-        <v>64011206</v>
+        <v>64011205</v>
       </c>
       <c r="F79" s="1">
-        <v>63012106</v>
+        <v>63012105</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>64011206</v>
+        <v>64011205</v>
       </c>
       <c r="I79" s="4">
-        <v>64012206</v>
+        <v>64012205</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -2539,25 +2539,25 @@
     </row>
     <row r="80" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
-        <v>54011301</v>
+        <v>54011206</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E80" s="4">
-        <v>64011301</v>
+        <v>27</v>
+      </c>
+      <c r="E80" s="5">
+        <v>64011206</v>
       </c>
       <c r="F80" s="1">
-        <v>63012301</v>
+        <v>63012106</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="4">
-        <v>64011301</v>
-      </c>
-      <c r="I80" s="5">
-        <v>64012301</v>
+      <c r="H80" s="5">
+        <v>64011206</v>
+      </c>
+      <c r="I80" s="4">
+        <v>64012206</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -2565,25 +2565,25 @@
     </row>
     <row r="81" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
-        <v>54011302</v>
+        <v>54011301</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="4">
-        <v>64011302</v>
+        <v>64011301</v>
       </c>
       <c r="F81" s="1">
-        <v>63012302</v>
+        <v>63012301</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <v>64011302</v>
+        <v>64011301</v>
       </c>
       <c r="I81" s="5">
-        <v>64012302</v>
+        <v>64012301</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -2591,25 +2591,25 @@
     </row>
     <row r="82" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
-        <v>54011303</v>
+        <v>54011302</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="4">
-        <v>64011303</v>
+        <v>64011302</v>
       </c>
       <c r="F82" s="1">
-        <v>63012303</v>
+        <v>63012302</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>64011303</v>
+        <v>64011302</v>
       </c>
       <c r="I82" s="5">
-        <v>64012303</v>
+        <v>64012302</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -2617,25 +2617,25 @@
     </row>
     <row r="83" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
-        <v>54011304</v>
+        <v>54011303</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E83" s="4">
-        <v>64011304</v>
+        <v>64011303</v>
       </c>
       <c r="F83" s="1">
-        <v>63012304</v>
+        <v>63012303</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <v>64011304</v>
+        <v>64011303</v>
       </c>
       <c r="I83" s="5">
-        <v>64012304</v>
+        <v>64012303</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -2643,25 +2643,25 @@
     </row>
     <row r="84" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
-        <v>54011305</v>
+        <v>54011304</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E84" s="4">
-        <v>64011305</v>
+        <v>64011304</v>
       </c>
       <c r="F84" s="1">
-        <v>63012305</v>
+        <v>63012304</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <v>64011305</v>
+        <v>64011304</v>
       </c>
       <c r="I84" s="5">
-        <v>64012305</v>
+        <v>64012304</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -2669,31 +2669,56 @@
     </row>
     <row r="85" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
-        <v>54011306</v>
+        <v>54011305</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E85" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="F85" s="1">
+        <v>63012305</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>64011305</v>
+      </c>
+      <c r="I85" s="5">
+        <v>64012305</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1">
+        <v>54011306</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="4">
         <v>64011306</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F86" s="1">
         <v>63012306</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
         <v>64011306</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I86" s="5">
         <v>64012306</v>
       </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="87" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2721,9 +2746,10 @@
     <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>